--- a/overwrite_lib/all_chip_mapping_table.xlsx
+++ b/overwrite_lib/all_chip_mapping_table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.22.95.12\vince_lin\ai\preMP\vp_lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ai\preMP\overwrite_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6996"/>
   </bookViews>
   <sheets>
     <sheet name="DBInfo" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Merlin7</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,34 @@
   </si>
   <si>
     <t>mpbackup_SftpPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB2919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB2919_Merlin8_64Bit_Android14_Ref_Plus_Wave_Backup_GoogleGMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/DailyBuild/Merlin8/DB2919_Merlin8_64Bit_Android14_Ref_Plus_Wave_Backup_GoogleGMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB2589</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB2897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB2588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB2592</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,32 +672,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="57.453125" customWidth="1"/>
-    <col min="6" max="6" width="84.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
-    <col min="9" max="9" width="68.54296875" customWidth="1"/>
-    <col min="10" max="10" width="92.08984375" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="57.44140625" customWidth="1"/>
+    <col min="6" max="6" width="84.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="68.5546875" customWidth="1"/>
+    <col min="10" max="10" width="92.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="64.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="83.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="83.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="69.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="88.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -725,7 +753,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -759,7 +787,9 @@
       <c r="K2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
@@ -769,7 +799,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -815,11 +845,17 @@
       <c r="O3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -853,7 +889,9 @@
       <c r="K4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
@@ -863,7 +901,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -897,7 +935,9 @@
       <c r="K5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
@@ -907,7 +947,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -941,7 +981,9 @@
       <c r="K6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
@@ -951,7 +993,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -992,5 +1034,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>